--- a/us/readme/08082017-网站字号规范对照表格（第二版）.xlsx
+++ b/us/readme/08082017-网站字号规范对照表格（第二版）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
   <si>
     <t>1920px</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,6 +386,26 @@
   </si>
   <si>
     <t>13px/1vw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.title42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28px/2.15vw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,10 +508,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -810,15 +830,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -938,19 +958,19 @@
     </row>
     <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -967,19 +987,19 @@
     </row>
     <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -996,19 +1016,19 @@
     </row>
     <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1025,19 +1045,19 @@
     </row>
     <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1054,19 +1074,19 @@
     </row>
     <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1083,19 +1103,19 @@
     </row>
     <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1112,19 +1132,19 @@
     </row>
     <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1141,19 +1161,19 @@
     </row>
     <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1170,19 +1190,19 @@
     </row>
     <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1199,19 +1219,19 @@
     </row>
     <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1228,19 +1248,19 @@
     </row>
     <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1255,11 +1275,22 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+    <row r="17" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1273,27 +1304,45 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="288.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" ht="288.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
     <row r="20" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
